--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\Genie\excel\"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>答卷编号</t>
   </si>
@@ -69,7 +69,34 @@
     <t>正常完成</t>
   </si>
   <si>
-    <t>影音心中我你英语醒一醒嘻嘻嘻why嘻嘻嘻异性</t>
+    <t>58.248.229.153</t>
+  </si>
+  <si>
+    <t>Chrome 57.0.2987.133</t>
+  </si>
+  <si>
+    <t>Android Linux 7.1.2</t>
+  </si>
+  <si>
+    <t>58.248.229.154</t>
+  </si>
+  <si>
+    <t>Chrome 57.0.2987.134</t>
+  </si>
+  <si>
+    <t>Android Linux 7.1.3</t>
+  </si>
+  <si>
+    <t>越来越觉得自己人生阅历太少了，从小又在一个不太幸福的家庭长大，没人指导我要怎么怎么克服生活的一个又一个难关，感觉自己脆弱而玻璃心。 很想改变一下自己，知道这不是一件容易的事，想一步一步慢慢来，之前看到说多读点书籍可以丰富一下自己的灵魂，对很多事可能就没有这么耿耿于怀了，而我从小没读过什么教材以外的书籍🙈 想问下，对于我这种大学要毕业了还没读过什么课外书的人，有什么书籍推荐我读一下嘛，就可以丰富一下灵魂的那种，谢谢～</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我完全不敢在人多的场合讲话哎，特别是正式场合。越长大越怂了怎么办啊，有什么地方可以让我练练吗。大学基本荒废英语了，也想顺便练练口语</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have no idea about 礼金。 很亲的一个姐姐要结婚了，不知道该给多大的红包才好。各位有什么建议吗？ 话说，每个地方风俗不同，也让我长长见识呗！</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -990,11 +1017,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="13" max="13" width="42.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1057,7 +1090,59 @@
         <v>15</v>
       </c>
       <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43409.864131944443</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43409.864259259259</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43409.864131944443</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43409.864259259259</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/excel/2.xlsx
+++ b/excel/2.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19275" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Q1_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>答卷编号</t>
   </si>
@@ -57,53 +57,14 @@
     <t>Q1_说出你的故事吧请注意保护个人隐私哦~</t>
   </si>
   <si>
-    <t>58.248.229.152</t>
-  </si>
-  <si>
-    <t>Chrome 57.0.2987.132</t>
-  </si>
-  <si>
-    <t>Android Linux 7.1.1</t>
-  </si>
-  <si>
-    <t>正常完成</t>
-  </si>
-  <si>
-    <t>58.248.229.153</t>
-  </si>
-  <si>
-    <t>Chrome 57.0.2987.133</t>
-  </si>
-  <si>
-    <t>Android Linux 7.1.2</t>
-  </si>
-  <si>
-    <t>58.248.229.154</t>
-  </si>
-  <si>
-    <t>Chrome 57.0.2987.134</t>
-  </si>
-  <si>
-    <t>Android Linux 7.1.3</t>
-  </si>
-  <si>
-    <t>越来越觉得自己人生阅历太少了，从小又在一个不太幸福的家庭长大，没人指导我要怎么怎么克服生活的一个又一个难关，感觉自己脆弱而玻璃心。 很想改变一下自己，知道这不是一件容易的事，想一步一步慢慢来，之前看到说多读点书籍可以丰富一下自己的灵魂，对很多事可能就没有这么耿耿于怀了，而我从小没读过什么教材以外的书籍🙈 想问下，对于我这种大学要毕业了还没读过什么课外书的人，有什么书籍推荐我读一下嘛，就可以丰富一下灵魂的那种，谢谢～</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我完全不敢在人多的场合讲话哎，特别是正式场合。越长大越怂了怎么办啊，有什么地方可以让我练练吗。大学基本荒废英语了，也想顺便练练口语</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>I have no idea about 礼金。 很亲的一个姐姐要结婚了，不知道该给多大的红包才好。各位有什么建议吗？ 话说，每个地方风俗不同，也让我长长见识呗！</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>灯神，我想对他说，我曾喜欢你三年了，心动是你心碎也是你。我可以每天都重复你走过的路，可以每次体育课都跑去偷看你打球，楼梯偶遇时还特别开心，每次遇见你，你都会一直看着我，渐渐的，发现你走着我经过路，不同楼的我们还能经常碰见，我以为你也喜欢我。但……这仅仅每次都是巧合吗？你知道那年那天那场雨，伞下的你和她伤了我的心吗？那天后，你知道我为了你深夜痛哭了多少次吗？后来听别人说你有女朋友了，那时起，决心忘掉你了，暗恋可以是甜的也可以是疼的。但抱歉，喜欢你我不后悔，也许没有你也没有今天的我。现在，你就在我班级楼下，终于我们也很少碰见了，我知道班里有你之前的同学，也许你可能也……但现在，我最起码能做到遇见你时内心毫无波澜了，我们终究还是彼此世界的陌生人。也有人喜欢我，但我心里未干净前我是绝对不可能谈恋爱的，我不想还活在你的影子里。而且一朝被蛇咬十年怕井绳，高中我可能很难再尝试喜欢一个人了。今天又看见你了，既然不喜欢，就别再用那眼神看我。我不再是以前的那个我了，现在的我你高攀不起！谢谢你，让我懂得了这么多，也祝你幸福，再见陌生人。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +223,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -689,11 +656,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,15 +988,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="13" max="13" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="2" customWidth="1"/>
+    <col min="5" max="6" width="9" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -1067,86 +1040,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
-        <v>43409.864131944443</v>
-      </c>
-      <c r="H2" s="1">
-        <v>43409.864259259259</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1">
-        <v>43409.864131944443</v>
-      </c>
-      <c r="H3" s="1">
-        <v>43409.864259259259</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1">
-        <v>43409.864131944443</v>
-      </c>
-      <c r="H4" s="1">
-        <v>43409.864259259259</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="L3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>